--- a/date/Input.xlsx
+++ b/date/Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koding\bysi\date\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koding\parser\date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B270772C-A7BD-4A62-9DAC-F4A8AFF55DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1ADFD-C05A-4889-8E2B-62EA19BE3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Количество комнат</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>Тип жилья</t>
+  </si>
+  <si>
+    <t>По умолчанию вторичка</t>
+  </si>
+  <si>
+    <t>По умолчанию - все. Ввод буквенный</t>
+  </si>
+  <si>
+    <t>Район</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -531,6 +543,22 @@
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
